--- a/data/sectors-industries.xlsx
+++ b/data/sectors-industries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johannes\Documents\uni\knowledge graphs\finance-kg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96ED4278-49ED-4148-8272-616486D74427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0360877B-33CC-43BD-9C27-380F5BB4B6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13095" yWindow="3015" windowWidth="23430" windowHeight="15285" xr2:uid="{B64EF971-7034-4CDE-AEDB-EE0A15629FD7}"/>
+    <workbookView xWindow="-28580" yWindow="4710" windowWidth="23430" windowHeight="15290" xr2:uid="{B64EF971-7034-4CDE-AEDB-EE0A15629FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,6 @@
     <t>Utilities</t>
   </si>
   <si>
-    <t>Bank - Diversified</t>
-  </si>
-  <si>
     <t>Credit Services</t>
   </si>
   <si>
@@ -504,6 +501,9 @@
   </si>
   <si>
     <t>Electronics &amp; Computer Distribution</t>
+  </si>
+  <si>
+    <t>Banks - Diversified</t>
   </si>
 </sst>
 </file>
@@ -877,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC32F7D-510D-4B9D-ABEE-92FD8F8C1C9E}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,484 +936,484 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
